--- a/assets/export/csv/Colors.xlsx
+++ b/assets/export/csv/Colors.xlsx
@@ -16,118 +16,118 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>-f#69acbe77,#ecd48477,#28515c77,#6cb49c77,#d8acac77)</t>
+  </si>
+  <si>
+    <t>AWS S3 Storage</t>
+  </si>
+  <si>
+    <t>-f#f4645477,#f2786f77,#7c130877)</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>-f#1894dc77,#247eb077,#44545c77,#44444477)</t>
+  </si>
+  <si>
+    <t>Azure SQL Database</t>
+  </si>
+  <si>
+    <t>-f#0e7ed777,#8ac1ec77,#08487c77)</t>
+  </si>
+  <si>
+    <t>Azure blob</t>
+  </si>
+  <si>
+    <t>-f#047cd477,#97c8ec77,#0c7cd477)</t>
+  </si>
+  <si>
+    <t>Integrator for OSISoft PI system</t>
+  </si>
+  <si>
+    <t>-f#0474cc77,#9cc4ec77,#0c74cc77)</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>-f#d4943c77,#dec09277,#287c9c77,#589cb477,#a4ccd477)</t>
+  </si>
+  <si>
     <t>DropBox</t>
   </si>
   <si>
-    <t>linear-gradient(#047ce477,#044c8477)</t>
-  </si>
-  <si>
-    <t>Azure SQL Database</t>
-  </si>
-  <si>
-    <t>linear-gradient(#0e7ed777,#8ac1ec77,#08487c77)</t>
-  </si>
-  <si>
-    <t>Azure blob</t>
-  </si>
-  <si>
-    <t>linear-gradient(#047cd477,#97c8ec77,#0c7cd477)</t>
-  </si>
-  <si>
-    <t>AWS S3 Storage</t>
-  </si>
-  <si>
-    <t>linear-gradient(#f4645477,#f2786f77,#7c130877)</t>
+    <t>-f#047ce477,#044c8477)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oracle DB </t>
+  </si>
+  <si>
+    <t>-f#7c7c7c77,#9f9f9f77,#40404077)</t>
+  </si>
+  <si>
+    <t>Outlook</t>
+  </si>
+  <si>
+    <t>-f#f4ae2677,#fce99177,#a45c3477,#68646077)</t>
+  </si>
+  <si>
+    <t>Schedule a task</t>
+  </si>
+  <si>
+    <t>-f#d8545077,#dc8c8d77,#6c1a1877,#9e5c5c77,#acc4d477,#49262677)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SendGrid </t>
+  </si>
+  <si>
+    <t>-f#3c7cc477,#1e406577)</t>
+  </si>
+  <si>
+    <t>Yahoo!</t>
+  </si>
+  <si>
+    <t>-f#7206f877,#b49cd477,#44049477)</t>
+  </si>
+  <si>
+    <t>Twilio</t>
+  </si>
+  <si>
+    <t>-f#f8040877,#82020477)</t>
   </si>
   <si>
     <t>File System</t>
   </si>
   <si>
-    <t>linear-gradient(#e9b12577,#f1e1a077,#915e4477,#b4965e77,#d4bcb477,#64646477)</t>
-  </si>
-  <si>
-    <t>Integrator for OSISoft PI system</t>
-  </si>
-  <si>
-    <t>linear-gradient(#0474cc77,#9cc4ec77,#0c74cc77)</t>
+    <t>-f#e9b12577,#f1e1a077,#915e4477,#b4965e77,#d4bcb477,#64646477)</t>
   </si>
   <si>
     <t>FTP</t>
   </si>
   <si>
-    <t>linear-gradient(#1caadc77,#94d4ec77,#1580ac77,#5c94ac77,#b4c4d477,#3c6c8577)</t>
-  </si>
-  <si>
-    <t>Gmail</t>
-  </si>
-  <si>
-    <t>linear-gradient(#69acbe77,#ecd48477,#28515c77,#6cb49c77,#d8acac77)</t>
+    <t>-f#1caadc77,#94d4ec77,#1580ac77,#5c94ac77,#b4c4d477,#3c6c8577)</t>
+  </si>
+  <si>
+    <t>MS SQL</t>
+  </si>
+  <si>
+    <t>-f#f4a4a477,#94949477,#bcbcbc77)</t>
   </si>
   <si>
     <t>Microsoft Excel procesing</t>
   </si>
   <si>
-    <t>linear-gradient(#2c7c5077,#24744477,#629c7d77,#b4d0c077,#448c6477)</t>
-  </si>
-  <si>
-    <t>HTTP</t>
-  </si>
-  <si>
-    <t>linear-gradient(#1894dc77,#247eb077,#44545c77,#44444477)</t>
-  </si>
-  <si>
-    <t>MySQL</t>
-  </si>
-  <si>
-    <t>linear-gradient(#d4943c77,#dec09277,#287c9c77,#589cb477,#a4ccd477)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oracle DB </t>
-  </si>
-  <si>
-    <t>linear-gradient(#7c7c7c77,#9f9f9f77,#40404077)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SendGrid </t>
-  </si>
-  <si>
-    <t>linear-gradient(#3c7cc477,#1e406577)</t>
-  </si>
-  <si>
-    <t>Schedule a task</t>
-  </si>
-  <si>
-    <t>linear-gradient(#d8545077,#dc8c8d77,#6c1a1877,#9e5c5c77,#acc4d477,#49262677)</t>
-  </si>
-  <si>
-    <t>MS SQL</t>
-  </si>
-  <si>
-    <t>linear-gradient(#f4a4a477,#94949477,#bcbcbc77)</t>
-  </si>
-  <si>
-    <t>Yahoo!</t>
-  </si>
-  <si>
-    <t>linear-gradient(#7206f877,#b49cd477,#44049477)</t>
-  </si>
-  <si>
-    <t>Twilio</t>
-  </si>
-  <si>
-    <t>linear-gradient(#f8040877,#82020477)</t>
+    <t>-f#2c7c5077,#24744477,#629c7d77,#b4d0c077,#448c6477)</t>
   </si>
   <si>
     <t>Zip and unzip</t>
   </si>
   <si>
-    <t>linear-gradient(#f4a42c77,#facd7777,#7e4e0677,#a9916e77,#c4bcbc77)</t>
-  </si>
-  <si>
-    <t>Outlook</t>
-  </si>
-  <si>
-    <t>linear-gradient(#f4ae2677,#fce99177,#a45c3477,#68646077)</t>
+    <t>-f#f4a42c77,#facd7777,#7e4e0677,#a9916e77,#c4bcbc77)</t>
   </si>
 </sst>
 </file>
